--- a/employee_details.xlsx
+++ b/employee_details.xlsx
@@ -209,35 +209,23 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="1"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="1"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4E869"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -245,33 +233,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf applyFont="1" fontId="0"/>
-    <xf applyFont="1" fontId="1" applyFill="1" fillId="2" applyBorder="1" borderId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyFont="1" fontId="0" applyBorder="1" borderId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -296,222 +263,222 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="0" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="0" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="0" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="0" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="0" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="0" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="0" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="0" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="0" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="0" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="0" t="s">
         <v>63</v>
       </c>
     </row>
